--- a/PS-VRP/Dati_output/Problemi_schedulazione_commesse.xlsx
+++ b/PS-VRP/Dati_output/Problemi_schedulazione_commesse.xlsx
@@ -418,45 +418,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>252681</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>253497</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -469,13 +430,87 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>release_date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tassativita</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>252778</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>45854.58333333334</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>252517</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45855.58333333334</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>251889</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>46022.58333333334</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,10 +536,122 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253295</v>
+        <v>243527</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45911.58333333334</v>
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>251685</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>251231</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>243523</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>243536</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>251790</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>243535</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>243526</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>252350</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45847.58333333334</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>252784</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>252783</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>252785</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>251849</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>252277</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45847.58333333334</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>252456</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45847.58333333334</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/Problemi_schedulazione_commesse.xlsx
+++ b/PS-VRP/Dati_output/Problemi_schedulazione_commesse.xlsx
@@ -418,6 +418,45 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>252681</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>253497</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -430,87 +469,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>release_date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>tassativita</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>252778</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>45854.58333333334</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>252517</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45855.58333333334</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>251889</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>46022.58333333334</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,122 +501,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>243527</v>
+        <v>253295</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>251685</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>251231</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>243523</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>243536</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>251790</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>243535</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>243526</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>252350</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45847.58333333334</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>252784</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>252783</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>252785</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>251849</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>252277</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45847.58333333334</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>252456</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45847.58333333334</v>
+        <v>45911.58333333334</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/Problemi_schedulazione_commesse.xlsx
+++ b/PS-VRP/Dati_output/Problemi_schedulazione_commesse.xlsx
@@ -418,14 +418,30 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>253497</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -436,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,34 +484,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252778</v>
+        <v>253668</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45854.58333333334</v>
+        <v>45910.58333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>252517</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45855.58333333334</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>251889</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>46022.58333333334</v>
-      </c>
-      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -510,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,122 +530,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>243527</v>
+        <v>253295</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>251685</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>251231</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>243523</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>243536</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>251790</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>243535</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>243526</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>252350</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45847.58333333334</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>252784</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>252783</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>252785</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>251849</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>252277</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45847.58333333334</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>252456</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45847.58333333334</v>
+        <v>45911.58333333334</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/Problemi_schedulazione_commesse.xlsx
+++ b/PS-VRP/Dati_output/Problemi_schedulazione_commesse.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,12 +484,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253668</v>
+        <v>253393</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45910.58333333334</v>
+        <v>45912.58333333334</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>253392</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45911.58333333334</v>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/Problemi_schedulazione_commesse.xlsx
+++ b/PS-VRP/Dati_output/Problemi_schedulazione_commesse.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,10 +484,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253393</v>
+        <v>253371</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45912.58333333334</v>
+        <v>45910.58333333334</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -495,12 +495,124 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>253392</v>
+        <v>253367</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45911.58333333334</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>253472</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45912.58333333334</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>253549</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45912.58333333334</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>253392</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45911.58333333334</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>253393</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45912.58333333334</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>253295</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45911.58333333334</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>252397</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45911.58333333334</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>253244</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45912.58333333334</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>252274</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45911.58333333334</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>253668</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45910.58333333334</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>252741</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45911.58333333334</v>
+      </c>
+      <c r="C13" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/Problemi_schedulazione_commesse.xlsx
+++ b/PS-VRP/Dati_output/Problemi_schedulazione_commesse.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253371</v>
+        <v>253522</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45910.58333333334</v>
@@ -495,10 +495,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>253367</v>
+        <v>253472</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45911.58333333334</v>
+        <v>45912.58333333334</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -506,10 +506,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>253472</v>
+        <v>253392</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45912.58333333334</v>
+        <v>45911.58333333334</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>253549</v>
+        <v>253393</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>45912.58333333334</v>
@@ -528,10 +528,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>253392</v>
+        <v>253376</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45911.58333333334</v>
+        <v>45910.58333333334</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -539,31 +539,31 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>253393</v>
+        <v>253295</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45912.58333333334</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>253295</v>
-      </c>
-      <c r="B8" s="1" t="n">
         <v>45911.58333333334</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>252529</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45910.58333333334</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252397</v>
+        <v>252274</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>45911.58333333334</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>252274</v>
+        <v>252397</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>45911.58333333334</v>
@@ -596,10 +596,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>253668</v>
+        <v>253549</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45910.58333333334</v>
+        <v>45912.58333333334</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -607,12 +607,56 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>253261</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45910.58333333334</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>244743</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45910.58333333334</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>253436</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45910.58333333334</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>252741</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45911.58333333334</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>253668</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45910.58333333334</v>
+      </c>
+      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/Problemi_schedulazione_commesse.xlsx
+++ b/PS-VRP/Dati_output/Problemi_schedulazione_commesse.xlsx
@@ -438,7 +438,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253497</v>
+        <v>253940</v>
       </c>
     </row>
   </sheetData>
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,10 +484,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253522</v>
+        <v>254187</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45910.58333333334</v>
+        <v>45975.58333333334</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -495,168 +495,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>253472</v>
+        <v>254967</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45912.58333333334</v>
+        <v>45981.58333333334</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>253392</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45911.58333333334</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>253393</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45912.58333333334</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>253376</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45910.58333333334</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>253295</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45911.58333333334</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>252529</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45910.58333333334</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>252274</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45911.58333333334</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>253244</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45912.58333333334</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>252397</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45911.58333333334</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>253549</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45912.58333333334</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>253261</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45910.58333333334</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>244743</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45910.58333333334</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>253436</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45910.58333333334</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>252741</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45911.58333333334</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>253668</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45910.58333333334</v>
-      </c>
-      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -671,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,10 +541,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253295</v>
+        <v>254237</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45911.58333333334</v>
+        <v>45975.58333333334</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>254427</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45978.58333333334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>254428</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45978.58333333334</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/Problemi_schedulazione_commesse.xlsx
+++ b/PS-VRP/Dati_output/Problemi_schedulazione_commesse.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,10 +484,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>254187</v>
+        <v>253974</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45975.58333333334</v>
+        <v>45980.58333333334</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -495,12 +495,34 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>254187</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45975.58333333334</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>254547</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45980.58333333334</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>254967</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>45981.58333333334</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/Problemi_schedulazione_commesse.xlsx
+++ b/PS-VRP/Dati_output/Problemi_schedulazione_commesse.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,10 +484,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253974</v>
+        <v>254187</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45980.58333333334</v>
+        <v>45975.58333333334</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -495,34 +495,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>254187</v>
+        <v>254967</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45975.58333333334</v>
+        <v>45981.58333333334</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>254547</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45980.58333333334</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>254967</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45981.58333333334</v>
-      </c>
-      <c r="C5" t="n">
         <v>0</v>
       </c>
     </row>
